--- a/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>BXXY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,59 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -968,8 +994,11 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -997,8 +1026,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,8 +1136,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1126,8 +1168,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1213,8 +1264,11 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1242,8 +1296,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1416,8 +1488,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1474,42 +1552,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,16 +1841,19 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -1766,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1920,7 +2045,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,17 +2095,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -1995,17 +2125,20 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2024,8 +2157,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2053,8 +2189,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2062,7 +2201,7 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -2080,10 +2219,13 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2236,7 +2393,7 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,8 +2683,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2622,8 +2816,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,22 +3164,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,17 +3338,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3125,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3181,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>BXXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +752,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,25 +907,28 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -916,14 +936,17 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,8 +991,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -997,8 +1024,11 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1109,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,8 +1179,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1171,8 +1214,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,8 +1284,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1267,8 +1319,11 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,8 +1529,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1599,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1706,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1879,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1855,8 +1963,8 @@
       <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2159,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2048,7 +2174,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2105,11 +2236,11 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -2128,20 +2259,23 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2160,8 +2294,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2192,19 +2329,22 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2222,15 +2362,18 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,8 +2539,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2396,7 +2554,7 @@
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2729,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,8 +2869,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,45 +2939,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3239,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,25 +3394,28 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,11 +3596,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3373,8 +3619,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>BXXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,16 +927,19 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -930,8 +950,8 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -939,14 +959,17 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1018,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1027,8 +1054,11 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1062,8 +1092,11 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1146,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,8 +1222,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1217,8 +1260,11 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1336,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1322,8 +1374,11 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1357,8 +1412,11 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,8 +1602,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1567,8 +1640,11 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1678,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1637,48 +1716,54 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1793,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +1981,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1966,8 +2074,8 @@
       <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2285,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2177,7 +2303,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2239,11 +2370,11 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2271,14 +2405,14 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -2297,8 +2431,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2332,8 +2469,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2341,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2365,10 +2505,13 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2376,7 +2519,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2697,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2557,7 +2715,7 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,8 +2903,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3055,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3131,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3017,8 +3212,11 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3456,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,28 +3624,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3599,11 +3845,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +3906,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>BXXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,19 +947,22 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -953,8 +973,8 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -962,14 +982,17 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1045,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1057,8 +1084,11 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,8 +1125,11 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1183,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,8 +1265,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1263,8 +1306,11 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1388,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1377,8 +1429,11 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1415,8 +1470,11 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,8 +1675,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1643,8 +1716,11 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1757,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1719,51 +1798,57 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1880,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1832,8 +1919,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2083,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2077,8 +2185,8 @@
       <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2411,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2306,7 +2432,7 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2373,11 +2504,11 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -2396,26 +2527,29 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -2434,8 +2568,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2472,25 +2609,28 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -2508,21 +2648,24 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,8 +2855,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2718,7 +2876,7 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,8 +3077,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,8 +3241,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3323,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3215,8 +3410,11 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3673,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3638,20 +3868,20 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4076,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3848,11 +4094,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3871,8 +4117,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4158,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>BXXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,22 +966,25 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -976,8 +995,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -985,14 +1004,17 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,13 +1071,14 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1087,8 +1113,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,13 +1307,16 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1309,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,13 +1439,16 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1432,13 +1483,16 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1473,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1678,13 +1747,16 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1719,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,13 +1835,16 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1801,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,13 +2272,16 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2188,8 +2295,8 @@
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,13 +2536,16 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -2435,7 +2560,7 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2507,11 +2637,11 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -2530,29 +2660,32 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -2571,13 +2704,16 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2612,8 +2748,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2621,19 +2760,19 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2651,24 +2790,27 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,13 +3012,16 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -2879,7 +3036,7 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,13 +3250,16 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E72" s="3">
         <v>-100</v>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,13 +3426,16 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,59 +3514,65 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3413,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,13 +4083,16 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
@@ -3871,20 +4100,20 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4097,11 +4342,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4120,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>BXXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,25 +986,28 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -998,8 +1018,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,17 +1098,18 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -1116,8 +1143,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,17 +1350,20 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,17 +1491,20 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1486,17 +1538,20 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1750,17 +1820,20 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,17 +1914,20 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,16 +2380,19 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2298,8 +2406,8 @@
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -2563,7 +2689,7 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2640,11 +2771,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -2663,32 +2794,35 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,7 +2853,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2763,19 +2903,19 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -2793,10 +2933,13 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,16 +2947,16 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,16 +3170,19 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -3039,7 +3197,7 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,7 +3436,7 @@
         <v>-400</v>
       </c>
       <c r="E72" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F72" s="3">
         <v>-100</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,16 +3612,19 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,66 +3706,72 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,16 +4313,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -4103,20 +4333,20 @@
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4345,11 +4591,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
